--- a/Cafe_Daily_Sales/보고서출력.xlsx
+++ b/Cafe_Daily_Sales/보고서출력.xlsx
@@ -1518,7 +1518,7 @@
       <c r="C6" s="34" t="n"/>
       <c r="D6" s="69" t="inlineStr">
         <is>
-          <t>2025-01-09</t>
+          <t>2025-01-08</t>
         </is>
       </c>
       <c r="E6" s="70" t="n"/>
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="D14" s="80" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E14" s="80" t="n">
-        <v>144710</v>
+        <v>153505</v>
       </c>
       <c r="F14" s="14" t="n"/>
       <c r="G14" s="29" t="inlineStr">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="I14" s="80" t="n">
-        <v>9900</v>
+        <v>0</v>
       </c>
       <c r="J14" s="0" t="n"/>
     </row>
@@ -1792,10 +1792,10 @@
         </is>
       </c>
       <c r="D15" s="80" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E15" s="80" t="n">
-        <v>88550</v>
+        <v>95675</v>
       </c>
       <c r="F15" s="14" t="n"/>
       <c r="G15" s="29" t="inlineStr">
@@ -1809,7 +1809,7 @@
         </is>
       </c>
       <c r="I15" s="80" t="n">
-        <v>377225</v>
+        <v>346040</v>
       </c>
       <c r="J15" s="0" t="n"/>
     </row>
@@ -1830,10 +1830,10 @@
         </is>
       </c>
       <c r="D16" s="80" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E16" s="80" t="n">
-        <v>153865</v>
+        <v>96860</v>
       </c>
       <c r="F16" s="38" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         </is>
       </c>
       <c r="I16" s="80" t="n">
-        <v>0</v>
+        <v>32000</v>
       </c>
       <c r="J16" s="0" t="n"/>
     </row>
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="D18" s="80" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E18" s="80" t="n">
-        <v>0</v>
+        <v>32000</v>
       </c>
       <c r="F18" s="38" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="C19" s="35" t="n"/>
       <c r="D19" s="80" t="n">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E19" s="80" t="n">
         <v>0</v>
@@ -2214,10 +2214,10 @@
         </is>
       </c>
       <c r="D31" s="80" t="n">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="E31" s="80" t="n">
-        <v>685700</v>
+        <v>540990</v>
       </c>
       <c r="F31" s="38" t="n"/>
       <c r="G31" s="38" t="n"/>
@@ -2243,10 +2243,10 @@
         </is>
       </c>
       <c r="D32" s="84" t="n">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E32" s="80" t="n">
-        <v>371950</v>
+        <v>283400</v>
       </c>
       <c r="F32" s="38" t="n"/>
       <c r="G32" s="38" t="n"/>
@@ -2271,10 +2271,10 @@
         </is>
       </c>
       <c r="D33" s="84" t="n">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="E33" s="80" t="n">
-        <v>538160</v>
+        <v>384295</v>
       </c>
       <c r="F33" s="38" t="n"/>
       <c r="G33" s="38" t="n"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="C36" s="35" t="n"/>
       <c r="D36" s="84" t="n">
-        <v>618</v>
+        <v>513</v>
       </c>
       <c r="E36" s="80" t="n">
         <v>0</v>

--- a/Cafe_Daily_Sales/보고서출력.xlsx
+++ b/Cafe_Daily_Sales/보고서출력.xlsx
@@ -1518,7 +1518,7 @@
       <c r="C6" s="34" t="n"/>
       <c r="D6" s="69" t="inlineStr">
         <is>
-          <t>2025-01-08</t>
+          <t>2025-01-13</t>
         </is>
       </c>
       <c r="E6" s="70" t="n"/>
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="D14" s="80" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E14" s="80" t="n">
-        <v>153505</v>
+        <v>97970</v>
       </c>
       <c r="F14" s="14" t="n"/>
       <c r="G14" s="29" t="inlineStr">
@@ -1792,10 +1792,10 @@
         </is>
       </c>
       <c r="D15" s="80" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15" s="80" t="n">
-        <v>95675</v>
+        <v>79175</v>
       </c>
       <c r="F15" s="14" t="n"/>
       <c r="G15" s="29" t="inlineStr">
@@ -1809,7 +1809,7 @@
         </is>
       </c>
       <c r="I15" s="80" t="n">
-        <v>346040</v>
+        <v>250985</v>
       </c>
       <c r="J15" s="0" t="n"/>
     </row>
@@ -1830,10 +1830,10 @@
         </is>
       </c>
       <c r="D16" s="80" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E16" s="80" t="n">
-        <v>96860</v>
+        <v>69840</v>
       </c>
       <c r="F16" s="38" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         </is>
       </c>
       <c r="I16" s="80" t="n">
-        <v>32000</v>
+        <v>24000</v>
       </c>
       <c r="J16" s="0" t="n"/>
     </row>
@@ -1872,10 +1872,10 @@
         </is>
       </c>
       <c r="D17" s="80" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E17" s="80" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="F17" s="38" t="n"/>
       <c r="G17" s="29" t="inlineStr">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="D18" s="80" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E18" s="80" t="n">
-        <v>32000</v>
+        <v>24000</v>
       </c>
       <c r="F18" s="38" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="C19" s="35" t="n"/>
       <c r="D19" s="80" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E19" s="80" t="n">
         <v>0</v>
@@ -2214,10 +2214,10 @@
         </is>
       </c>
       <c r="D31" s="80" t="n">
-        <v>178</v>
+        <v>309</v>
       </c>
       <c r="E31" s="80" t="n">
-        <v>540990</v>
+        <v>942215</v>
       </c>
       <c r="F31" s="38" t="n"/>
       <c r="G31" s="38" t="n"/>
@@ -2243,10 +2243,10 @@
         </is>
       </c>
       <c r="D32" s="84" t="n">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="E32" s="80" t="n">
-        <v>283400</v>
+        <v>510070</v>
       </c>
       <c r="F32" s="38" t="n"/>
       <c r="G32" s="38" t="n"/>
@@ -2271,10 +2271,10 @@
         </is>
       </c>
       <c r="D33" s="84" t="n">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="E33" s="80" t="n">
-        <v>384295</v>
+        <v>688525</v>
       </c>
       <c r="F33" s="38" t="n"/>
       <c r="G33" s="38" t="n"/>
@@ -2299,10 +2299,10 @@
         </is>
       </c>
       <c r="D34" s="84" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E34" s="80" t="n">
-        <v>19000</v>
+        <v>23000</v>
       </c>
       <c r="F34" s="38" t="n"/>
       <c r="G34" s="39">
@@ -2328,10 +2328,10 @@
         </is>
       </c>
       <c r="D35" s="84" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E35" s="80" t="n">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="F35" s="38" t="n"/>
       <c r="G35" s="29" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="C36" s="35" t="n"/>
       <c r="D36" s="84" t="n">
-        <v>513</v>
+        <v>826</v>
       </c>
       <c r="E36" s="80" t="n">
         <v>0</v>

--- a/Cafe_Daily_Sales/보고서출력.xlsx
+++ b/Cafe_Daily_Sales/보고서출력.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Study\python\Cafe_Daily_Sales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7666994C-6D09-4C6A-A82C-5F697C6B2151}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B0A585-F88C-4808-9ABD-58268DA8C6CE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8535" yWindow="0" windowWidth="15255" windowHeight="15135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="보고서" sheetId="1" r:id="rId1"/>
@@ -1460,8 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5"/>
